--- a/SalesRep.xlsx
+++ b/SalesRep.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28217"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC6BD1A-66A9-4FBE-AD8E-2BF2B00D5EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D44AFB-FC2D-4E7F-833D-798094B8CAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="4545" windowWidth="29145" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="29145" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,21 +784,21 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,10 +806,10 @@
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,10 +817,10 @@
         <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,10 +828,10 @@
         <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,10 +839,10 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,10 +850,10 @@
         <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,10 +861,10 @@
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,10 +872,10 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,21 +883,21 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,10 +905,10 @@
         <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,10 +916,10 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,10 +927,10 @@
         <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,10 +938,10 @@
         <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,10 +949,10 @@
         <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,10 +982,10 @@
         <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
